--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W5_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W5_H50_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5287009063444109</v>
+        <v>0.4712990936555891</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09589890863447818</v>
+        <v>0.0880475683167093</v>
       </c>
       <c r="J2" t="n">
-        <v>1248.224263027088</v>
+        <v>1147.192712878948</v>
       </c>
       <c r="K2" t="n">
-        <v>2092463.496393622</v>
+        <v>1743550.222863381</v>
       </c>
       <c r="L2" t="n">
-        <v>1446.534996601749</v>
+        <v>1320.435618598416</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6088277362751489</v>
+        <v>0.6740547738247673</v>
       </c>
     </row>
   </sheetData>
